--- a/testdata/Simple_Shift_Plan_Request.xlsx
+++ b/testdata/Simple_Shift_Plan_Request.xlsx
@@ -1542,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1576,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
